--- a/product_data.xlsx
+++ b/product_data.xlsx
@@ -40,7 +40,7 @@
     <t xml:space="preserve">cert_links</t>
   </si>
   <si>
-    <t xml:space="preserve">Товар Г</t>
+    <t xml:space="preserve">Товар А</t>
   </si>
   <si>
     <t xml:space="preserve">Описание</t>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">Состав</t>
   </si>
   <si>
-    <t xml:space="preserve">Категория Г</t>
+    <t xml:space="preserve">Категория А</t>
   </si>
   <si>
     <t xml:space="preserve">Магазин 1</t>
@@ -160,13 +160,17 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -369,10 +373,14 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.92"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -395,29 +403,26 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" display="http://cert1.pdf, http://cert2.pdf"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
